--- a/area_calc_scrapbook.xlsx
+++ b/area_calc_scrapbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\murray98\Documents\Paleointensity\paleointensity-org-website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25764F0-5158-49AE-9F59-6DDA1E5FBC09}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA012690-7AEF-4FF5-99FC-BA99F72A5EF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7620" xr2:uid="{C4FDDBEB-4583-46AA-9F54-4C079576CFE1}"/>
   </bookViews>
@@ -214,7 +214,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>8</c:v>
@@ -1095,16 +1095,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>312420</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>281529</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127687</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>584269</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>127687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1432,7 +1432,7 @@
   <dimension ref="B2:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1474,6 +1474,7 @@
         <v>10</v>
       </c>
       <c r="D3">
+        <f>C3</f>
         <v>10</v>
       </c>
       <c r="G3">
@@ -1483,10 +1484,10 @@
         <v>10</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="M3">
         <v>2</v>
@@ -1500,16 +1501,17 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4">
+        <f>C$3 - (C$3-C$7)*B4/B$7</f>
         <v>8</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4">
         <v>2.5</v>
@@ -1518,10 +1520,10 @@
         <v>5</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -1532,13 +1534,14 @@
         <v>8</v>
       </c>
       <c r="D5">
+        <f t="shared" ref="D5:D7" si="0">C$3 - (C$3-C$7)*B5/B$7</f>
         <v>4</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>3</v>
@@ -1547,10 +1550,10 @@
         <v>8</v>
       </c>
       <c r="M5">
+        <v>2.5</v>
+      </c>
+      <c r="N5">
         <v>5</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -1561,6 +1564,7 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G6" t="s">
@@ -1568,21 +1572,21 @@
       </c>
       <c r="H6">
         <f>0.5*(G3*(H4-H5)+G4*(H5-H3)+G5*(H3-H4))</f>
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="J6" t="s">
         <v>6</v>
       </c>
       <c r="K6">
         <f>0.5*(J3*(K4-K5)+J4*(K5-K3)+J5*(K3-K4))</f>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="s">
         <v>6</v>
       </c>
       <c r="N6">
         <f>0.5*(M3*(N4-N5)+M4*(N5-N3)+M5*(N3-N4))</f>
-        <v>-5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -1593,6 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1610,7 +1615,8 @@
         <v>7</v>
       </c>
       <c r="K8">
-        <v>10</v>
+        <f>H6+N6+K6</f>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
